--- a/output/HONDA_05-03-2024.xlsx
+++ b/output/HONDA_05-03-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,20 +716,16 @@
           <t>91601P8AA01</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>155673663762</t>
-        </is>
+      <c r="C4" t="n">
+        <v>155673663762</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/OTYwWDE2MDA=/z/plUAAOSwqhpkt1pG/$_12.PNG?set_id=880000500F']</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9886</t>
-        </is>
+      <c r="E4" t="n">
+        <v>9886</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -762,12 +758,156 @@
           <t>Genuine OE Clip Plastic 91601P8AA01 For Honda 91601P-8AA01</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
+      <c r="Y4" t="n">
+        <v>6.67</v>
       </c>
       <c r="Z4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>91601TK4A01</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>285089693172</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxMjAw/z/4H8AAOSwLL9jq0Sf/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>14769</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Other Exterior Parts &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Honda 91601-TK4-A01Blind Plug (25) (Burring Hole) 2006-2021 Honda 91601TK4A01</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>91602SZ5000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>305030970673</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTk2WDEwNDQ=/z/iSAAAOSwA8dlsCGg/$_12.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33646</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Hoods:Hood Panels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Acura</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>91602-SZ5-000</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>['Front']</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Genuine HONDA Hood Rubber Bumper Cushion (11 6Mm) 91602SZ5000</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>[{'Year': '2014', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'DX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'SE Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'Sport Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2014', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'Touring Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'DX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'Sport Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'Touring Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2013', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'VP Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'DX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'Sport Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'Touring Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2012', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'VP Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'DX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'EX-L Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2011', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'VP Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'DX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'EX-L Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2010', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'VP Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'DX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'EX-L Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2009', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'VP Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Acura', 'Model': 'TSX', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'SE-L Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Special Edition Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'Value Package Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'EX-L Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'LX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2008', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Acura', 'Model': 'TSX', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2007', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTX Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Acura', 'Model': 'TSX', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2006', 'Make': 'Honda', 'Model': 'Ridgeline', 'Trim': 'RTS Crew Cab Pickup 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Acura', 'Model': 'TSX', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2005', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Acura', 'Model': 'TSX', 'Trim': 'Base Sedan 4-Door', 'Engine': '2.4L 2354CC 144Cu. In. l4 GAS DOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3475CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2004', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3475CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.2L 3210CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Type-S Sedan 4-Door', 'Engine': '3.2L 3210CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'EX Sport Utility 4-Door', 'Engine': '3.5L 3475CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2003', 'Make': 'Honda', 'Model': 'Pilot', 'Trim': 'LX Sport Utility 4-Door', 'Engine': '3.5L 3475CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.2L 3210CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Type-S Sedan 4-Door', 'Engine': '3.2L 3210CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'DX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS OHV Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX-R Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'SE Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'SE Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2002', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'Value Package Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Base Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Acura', 'Model': 'MDX', 'Trim': 'Touring Sport Utility 4-Door', 'Engine': '3.5L 3471CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.2L 3210CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'DX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS OHV Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX-R Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'Value Package Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Base Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2001', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Type SH Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.2L 3210CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'Coupe Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS OHV Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'Coupe Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'DX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS OHV Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX-R Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'SE Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Base Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '2000', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Type SH Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.2L 3210CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'Coupe Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS OHV Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'Coupe Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'DX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS OHV Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX-R Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Base Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1999', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Type SH Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.2L 3206CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Premium Sedan 4-Door', 'Engine': '3.2L 3206CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'Coupe Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS OHV Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'Coupe Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'DX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS OHV Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'EX-R Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Coupe 2-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '2.3L 2254CC l4 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Accord', 'Trim': 'LX Sedan 4-Door', 'Engine': '3.0L 2997CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Base Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1998', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Type SH Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.2L 3206CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Premium Sedan 4-Door', 'Engine': '3.2L 3206CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Base Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1997', 'Make': 'Honda', 'Model': 'Prelude', 'Trim': 'Type SH Coupe 2-Door', 'Engine': '2.2L 2156CC l4 GAS DOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Base Sedan 4-Door', 'Engine': '3.2L 3206CC V6 GAS SOHC Naturally Aspirated'}, {'Year': '1996', 'Make': 'Acura', 'Model': 'TL', 'Trim': 'Premium Sedan 4-Door', 'Engine': '3.2L 3206CC V6 GAS SOHC Naturally Aspirated'}]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
